--- a/SQL/SQL評量_正規化題目_羅家孜_修改.xlsx
+++ b/SQL/SQL評量_正規化題目_羅家孜_修改.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\教材\SQL\評量\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDD51EB-3BF4-4E5C-8DA7-B616A0BFD81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF6F898-F8AE-46C0-BF68-9BAA9782A50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
   <si>
     <t>C001</t>
   </si>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NVARCHAR(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(4)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -295,10 +291,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NVARCHAR(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NUMBER(2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -311,10 +303,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NVARCHAR(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>設施編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,6 +356,14 @@
   </si>
   <si>
     <t>避難設施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +774,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -794,7 +790,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -808,62 +804,62 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -878,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -887,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="4"/>
     </row>
@@ -902,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1">
         <v>3142</v>
@@ -911,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -925,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1">
         <v>1072</v>
@@ -934,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -948,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1">
         <v>32</v>
@@ -957,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="4"/>
     </row>
@@ -972,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1">
         <v>106</v>
@@ -981,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -995,7 +991,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1">
         <v>26</v>
@@ -1004,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1018,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1">
         <v>2038</v>
@@ -1027,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1041,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1">
         <v>128</v>
@@ -1050,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1064,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1">
         <v>353</v>
@@ -1073,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1087,7 +1083,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1">
         <v>501</v>
@@ -1096,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1110,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1">
         <v>194</v>
@@ -1119,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1133,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1">
         <v>78</v>
@@ -1142,12 +1138,12 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1163,30 +1159,30 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1194,13 +1190,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1208,13 +1204,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1222,18 +1218,18 @@
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1249,30 +1245,30 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1280,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>18</v>
@@ -1294,10 +1290,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -1308,10 +1304,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
@@ -1322,10 +1318,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>7</v>
@@ -1336,10 +1332,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
@@ -1350,10 +1346,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>12</v>
@@ -1364,10 +1360,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>15</v>
@@ -1378,10 +1374,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>17</v>

--- a/SQL/SQL評量_正規化題目_羅家孜_修改.xlsx
+++ b/SQL/SQL評量_正規化題目_羅家孜_修改.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\教材\SQL\評量\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF6F898-F8AE-46C0-BF68-9BAA9782A50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E235B0-95ED-4C7D-98BD-4AA211C787AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="1365" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
   <si>
     <t>C001</t>
   </si>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79BA385-2ED2-47D7-91F7-D9B6BC4F12D7}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -812,9 +812,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
